--- a/imageCreationExcel/back/105/105_0.xlsx
+++ b/imageCreationExcel/back/105/105_0.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.072125769891586</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7217032503921703</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9260404836003513</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_2_contrast1.072_gamma0.722_sharpness0.926.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.47262137219521</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9526470451393666</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7467082723095846</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_brightness24.473_contrast0.953_sharpness0.747.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,39 +570,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26.06755888970621</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.15229638381689</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8934260675382673</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_P_brightness26.068_contrast1.152_sharpness0.893.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.076414291633413</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8078940580817813</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.56552609934659</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_9_gamma1.076_sharpness0.808_equalization25.566.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22.13102711086225</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.128483389074064</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8679488218320894</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_brightness22.131_contrast1.128_sharpness0.868.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,30 +705,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.184141635963724</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.703805214130241</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.465726817881487</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_I_contrast1.184_sharpness0.704_equalization6.466.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9314010642020607</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0953649827256406</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>19.0457644021071</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_contrast0.931_sharpness0.095_equalization19.046.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.053329282975551</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9478751014786224</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.6670679986994925</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_P_contrast1.053_gamma0.948_sharpness0.667.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.097195522651369</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5249986035365972</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>28.45271905202978</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_S_contrast1.097_sharpness0.525_equalization28.453.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25.0033733083453</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.108098975998071</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6931490502065101</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_8_brightness25.003_contrast1.108_sharpness0.693.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,15 +915,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.363026501923388</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.100430075086188</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9522984966020779</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_0_brightness8.363_contrast1.1_sharpness0.952.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.71350057136842</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8147226310532819</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6599446546266954</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_P_brightness12.714_contrast0.815_gamma0.66.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.095462848909065</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.4276502262130723</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>28.20788133636965</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_2_contrast1.095_sharpness0.428_equalization28.208.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25.25900667457352</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.939022732430346</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7907453374945373</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_brightness25.259_contrast0.939_sharpness0.791.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23.81624202114409</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.010319379388302</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9265009180569591</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_C_brightness23.816_contrast1.01_gamma0.927.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22.46080695592769</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5240437596469515</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.3337148668379529</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_brightness22.461_gamma0.524_sharpness0.334.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28.49542364667337</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.133231718342703</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7799938829246021</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_1_brightness28.495_contrast1.133_sharpness0.78.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.034364110473299</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9484696488775159</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.4412527705614591</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_contrast1.034_gamma0.948_sharpness0.441.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.872083156516637</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8400842892675366</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.3720071386663411</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_B_brightness1.872_contrast0.84_sharpness0.372.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.064353993207174</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.2600869549405923</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>19.07244186420845</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_contrast1.064_sharpness0.26_equalization19.072.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.065106684380734</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.017002055921836</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>27.98871590630217</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_T_contrast1.065_gamma1.017_equalization27.989.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7019121911831486</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3825340855909233</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17.41419417380513</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_0_gamma0.702_sharpness0.383_equalization17.414.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.7223000526934411</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.335052988398092</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>18.60131352583481</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_I_gamma0.722_sharpness0.335_equalization18.601.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.036040279944616</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9886483279192025</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3944616862478454</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_0_contrast1.036_gamma0.989_sharpness0.394.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,24 +1494,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8533662471650982</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.4715146395696179</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>22.49950329284083</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_gamma0.853_sharpness0.472_equalization22.5.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21.43613107239825</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.162455784279774</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8940576396039746</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_brightness21.436_contrast1.162_sharpness0.894.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14.63484145524039</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9191214472297108</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.110355787907163</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_P_brightness14.635_contrast0.919_sharpness0.11.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>29.89638324839154</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9370822453218672</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.693402913097333</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_brightness29.896_contrast0.937_sharpness0.693.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,15 +1671,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9320824792685285</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1784544141674862</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>13.80443670340585</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_contrast0.932_sharpness0.178_equalization13.804.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14.31403192316942</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9127826982946227</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.07413684750087</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_I_brightness14.314_contrast0.913_sharpness0.074.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1751,34 +1751,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.65879238823177</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9015445111542126</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.05512735471677385</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_brightness18.659_contrast0.902_sharpness0.055.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18.10866361690101</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8908516585154034</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2195886515547144</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_brightness18.109_contrast0.891_sharpness0.22.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8662360899530142</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.153239119478913</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.8126158617351201</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_I_brightness0.866_contrast1.153_sharpness0.813.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9427426336593265</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6423682486100848</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.994897000416273</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_S_gamma0.943_sharpness0.642_equalization4.995.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18.29487210248841</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8318557747242069</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.07955564185109414</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_8_brightness18.295_contrast0.832_sharpness0.08.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14.66590416937393</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8265707966147948</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.1898475947457612</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_brightness14.666_contrast0.827_sharpness0.19.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7.673041372773803</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.922134035968956</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5922651034800896</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_brightness7.673_contrast0.922_sharpness0.592.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.053638667951398</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.4507131683233209</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8.31813567589526</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_P_gamma1.054_sharpness0.451_equalization8.318.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.999277420694363</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,22 +2099,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9206363979611963</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>30.93902041063314</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_I_contrast0.999_gamma0.921_equalization30.939.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.017429379459858</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6122499009417715</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8.176540325430281</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_gamma1.017_sharpness0.612_equalization8.177.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5706503038649391</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8787003545510337</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4327506831391248</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_0_brightness0.571_contrast0.879_sharpness0.433.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19.37537555194405</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8548725948791601</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.1541779837616033</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_brightness19.375_contrast0.855_sharpness0.154.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,15 +2259,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9626784162006553</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.083810482214738</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>31.84357144842479</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast0.963_gamma1.084_equalization31.844.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,30 +2301,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10.11011933237276</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9210629339194436</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6407494787412448</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness10.11_contrast0.921_gamma0.641.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.00160263513747</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6664104738884384</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.24995355080545</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_I_gamma1.002_sharpness0.666_equalization11.25.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9531459692376355</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6524102761200714</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>31.76963309389919</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_3_gamma0.953_sharpness0.652_equalization31.77.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9.275650019988639</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.852965215384642</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.3949063342030111</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_brightness9.276_contrast0.853_sharpness0.395.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.705334413693507</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8741298206681742</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4648655901591063</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_brightness7.705_contrast0.874_sharpness0.465.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
